--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Backlog Priorizado - Proyecto Biblioteca El pimiento.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Backlog Priorizado - Proyecto Biblioteca El pimiento.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
   <si>
     <t>Desarrollo ágil: Product Backlog priorizado - Proyecto Biblioteca El pimiento</t>
   </si>
@@ -220,67 +220,25 @@
     <t>Como visitante ocasional, quiero poder solicitar un préstamo de libro sin necesidad de crear una cuenta permanente, para facilitar el acceso a los recursos de la biblioteca a todos los usuarios.</t>
   </si>
   <si>
-    <t>E8-H1</t>
-  </si>
-  <si>
-    <t>Crear autor</t>
-  </si>
-  <si>
-    <t>Como administrador quiero ser capaz de crear un autor para facilitar la creación de libros</t>
-  </si>
-  <si>
-    <t>E8-H2</t>
-  </si>
-  <si>
-    <t>Crear editorial</t>
-  </si>
-  <si>
-    <t>Como administrador quiero ser capaz de crear una editorial para facilitar la creación de libros</t>
-  </si>
-  <si>
-    <t>E8-H3</t>
-  </si>
-  <si>
-    <t>Crear categoria</t>
-  </si>
-  <si>
-    <t>Como administrador quiero ser capaz de crear categorías para facilitar la creación de libros</t>
-  </si>
-  <si>
-    <t>E8-H4</t>
-  </si>
-  <si>
-    <t>Crear genero</t>
-  </si>
-  <si>
-    <t>Como administrador quiero ser capaz de crear un genero para facilitar la creación de libros</t>
-  </si>
-  <si>
-    <t>E8-H5</t>
-  </si>
-  <si>
-    <t>Crear repisas</t>
-  </si>
-  <si>
-    <t>Como administrador quiero ser capaz de crear repisas para facilitar la creación y gestión de libros</t>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>Crud funciones secundarias</t>
+  </si>
+  <si>
+    <t>Como administrador quiero ser capaz de crear, editar y eliminar un autor, categoria, genero, editorial y repisa para facilitar la creación de libros</t>
   </si>
   <si>
     <t>E3-H2</t>
   </si>
   <si>
-    <t>Filtro categorias</t>
-  </si>
-  <si>
-    <t>Como usuario, quiero ser capaz de ver libros especificos de alguna categoria que yo elija</t>
+    <t>Filtro</t>
+  </si>
+  <si>
+    <t>Como usuario, quiero ser capaz de ver libros especificos de alguna categoria o genero que yo elija</t>
   </si>
   <si>
     <t>Media</t>
-  </si>
-  <si>
-    <t>Filtro generos</t>
-  </si>
-  <si>
-    <t>Como usuario, quiero ser capaz de ver libros especificos de algun genero que yo elija</t>
   </si>
   <si>
     <t>E5-H1</t>
@@ -350,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -376,10 +334,6 @@
     <font>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <color rgb="FF434343"/>
-      <name val="Docs-Roboto"/>
     </font>
   </fonts>
   <fills count="4">
@@ -535,10 +489,10 @@
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -546,13 +500,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -560,13 +514,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF284E3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -576,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -631,22 +585,13 @@
     <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -722,7 +667,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B4:F39" displayName="Tabla_1" name="Tabla_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B4:F34" displayName="Tabla_1" name="Tabla_1" id="1">
   <tableColumns count="5">
     <tableColumn name="ID de la Historia" id="1"/>
     <tableColumn name="Nombre de Tarea" id="2"/>
@@ -1349,7 +1294,7 @@
       <c r="B27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1359,210 +1304,125 @@
         <v>3.0</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="19" t="s">
         <v>76</v>
       </c>
+      <c r="C28" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="D28" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E28" s="14">
         <v>3.0</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="20" t="s">
         <v>79</v>
       </c>
+      <c r="C29" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="D29" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E29" s="9">
         <v>3.0</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="19" t="s">
         <v>82</v>
       </c>
+      <c r="C30" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="D30" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30" s="14">
         <v>3.0</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E31" s="9">
         <v>3.0</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="11" t="s">
-        <v>84</v>
+      <c r="B32" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E32" s="14">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="6" t="s">
-        <v>90</v>
+      <c r="B33" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E33" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>32</v>
+        <v>4.0</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="C34" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="6" t="s">
+      <c r="D34" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="9">
+      <c r="E34" s="24">
         <v>4.0</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="F39" s="28" t="s">
+      <c r="F34" s="25" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Backlog Priorizado - Proyecto Biblioteca El pimiento.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Backlog Priorizado - Proyecto Biblioteca El pimiento.xlsx
@@ -1369,7 +1369,7 @@
         <v>87</v>
       </c>
       <c r="E31" s="9">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>9</v>
